--- a/R/codebooks/D3_TD_variable_comedication.xlsx
+++ b/R/codebooks/D3_TD_variable_comedication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Seafile\Seafile\Mia Libreria\CVM\EHR_studies\Readiness\script_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{20E2FC20-952A-4925-978D-F45BA8EEE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42EF271-5DC3-4418-A0A1-3C8C24765B2F}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{20E2FC20-952A-4925-978D-F45BA8EEE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349409A3-6540-421D-BD04-D0D3603AC82E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
         <color rgb="FF444444"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>Only changes of status are recorded, with date of change. date when the condition changes; a recording of the medication lasts 90 days and the algorithm is reverted to values 0 whenever no drug recrdis active</t>
+      <t>Only changes of status are recorded, with date when the condition changes; a recording of the medication lasts 90 days and the algorithm is reverted to values 0 whenever no drug recrdis active</t>
     </r>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -906,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft"/>
@@ -1430,20 +1430,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8718e4a61e08f80278e3f0325a3727eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f65cc27c03321c69be19df794a0d9ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
     <xsd:import namespace="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
     <xsd:element name="properties">
@@ -1467,6 +1464,7 @@
                 <xsd:element ref="ns2:Comments" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1544,6 +1542,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" elementFormDefault="qualified">
@@ -1687,22 +1690,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74ED4E84-7DB6-4C62-87CB-206E04D98907}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E19072D6-AFCA-4D65-8D32-AFC243DAC72C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
 </file>